--- a/data/case1/5/V1_1.xlsx
+++ b/data/case1/5/V1_1.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999210134538</v>
+        <v>0.999999992072653</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99402404797642407</v>
+        <v>0.99520843136657289</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.97103693280947667</v>
+        <v>0.97610727898855565</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9599617074675475</v>
+        <v>0.96787899161395186</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.94925684696619994</v>
+        <v>0.96011651837320333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.92431913788836861</v>
+        <v>0.94440419631916495</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.91934249244881971</v>
+        <v>0.94129012382374588</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.91188794275323382</v>
+        <v>0.93789450662011498</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.90338045691974089</v>
+        <v>0.93577963263632791</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.89578370539534802</v>
+        <v>0.93460903573631582</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.89463928055310604</v>
+        <v>0.93457051277186953</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.89271792872856759</v>
+        <v>0.93475366944524774</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.88142772706029282</v>
+        <v>0.93732856909643436</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.87725974025290088</v>
+        <v>0.93923038544225323</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.87466795274583309</v>
+        <v>0.94240407985251107</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.8721612446378324</v>
+        <v>0.94062387646810264</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.86845312999303981</v>
+        <v>0.93932450290834124</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.86734421991897848</v>
+        <v>0.93898662431469415</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99146339978970444</v>
+        <v>0.99330877442662335</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.97295663293834389</v>
+        <v>0.97841296835723046</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.96876357459088991</v>
+        <v>0.97701452052830418</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.96749907037483829</v>
+        <v>0.97575003468332289</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.96400121256924931</v>
+        <v>0.96907194053331724</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.95097938799279014</v>
+        <v>0.95605050919933088</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.94452224124158879</v>
+        <v>0.94959343118430461</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.92196665955463253</v>
+        <v>0.94236924072273776</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.91893582800328577</v>
+        <v>0.93978445594611171</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.90683511058251776</v>
+        <v>0.92398977416679573</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.89851224290357457</v>
+        <v>0.91290542548722875</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.89505039018295052</v>
+        <v>0.90780572229901912</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.89646878656969098</v>
+        <v>0.90586874971804876</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.89804805739620808</v>
+        <v>0.90635628399940482</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.90200232396547309</v>
+        <v>0.90583629366458929</v>
       </c>
     </row>
   </sheetData>
